--- a/unique_list.xlsx
+++ b/unique_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t xml:space="preserve">original_entry</t>
   </si>
@@ -71,51 +71,42 @@
     <t xml:space="preserve">NSD</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrow (N), Slow (S), Close (C)  and Decarbonization (D)</t>
+    <t xml:space="preserve">NSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">S, C</t>
+    <t xml:space="preserve">SCD</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
     <t xml:space="preserve">NSC</t>
   </si>
   <si>
     <t xml:space="preserve">NSCAD</t>
   </si>
   <si>
+    <t xml:space="preserve">NCDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SCD</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
-    <t xml:space="preserve">NCDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strong CE scenario</t>
   </si>
   <si>
     <t xml:space="preserve">AD</t>
   </si>
   <si>
-    <t xml:space="preserve">N, S</t>
-  </si>
-  <si>
     <t xml:space="preserve">SC</t>
   </si>
   <si>
@@ -179,6 +170,15 @@
     <t xml:space="preserve">floor area reduction in buildings</t>
   </si>
   <si>
+    <t xml:space="preserve">2060 vs. current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduced_demand, decarbonization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">improved_yields, recycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">circular_agriculture, circular_construction, renewables, circular manufacturing</t>
   </si>
   <si>
@@ -200,9 +200,6 @@
     <t xml:space="preserve">Share Repair Manufactured Products</t>
   </si>
   <si>
-    <t xml:space="preserve">energy_efficiency</t>
-  </si>
-  <si>
     <t xml:space="preserve">low-level: efficient_products, sharing, lifetime_extension, intensive_use</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">improved_yields, improved_design, energy_efficiency, decarbonisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demand_shift</t>
   </si>
   <si>
     <t xml:space="preserve">reduced_demand, decarbonisation, recycling
@@ -282,6 +276,9 @@
     <t xml:space="preserve">intensive_use (wahsing machine), decarbonization</t>
   </si>
   <si>
+    <t xml:space="preserve">CCU, decarbonization</t>
+  </si>
+  <si>
     <t xml:space="preserve">decarbonization, CCU, demand_reduction, yield_improvement, recycling </t>
   </si>
   <si>
@@ -289,15 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve">reduction in GHGs due to reduced material demand of fossil infrastructure given low-carbon transition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate_tax</t>
   </si>
   <si>
     <t xml:space="preserve">yield improvements in basic materials secotrs + resource tax, demand reduction and demand shift
 </t>
   </si>
   <si>
+    <t xml:space="preserve">recycle, decarbonize</t>
+  </si>
+  <si>
     <t xml:space="preserve">recycling, improved_yields, reuse, increased_lifetime, material_substitution_refuse, improved_design</t>
   </si>
   <si>
@@ -325,7 +322,7 @@
     <t xml:space="preserve">-46% demand</t>
   </si>
   <si>
-    <t xml:space="preserve">extending_lifetime, more_intensive_use</t>
+    <t xml:space="preserve">extending_lifetime, more_intensive_use_vehicles</t>
   </si>
   <si>
     <t xml:space="preserve">medium-level measures for improved_yields, reduced_demand, intensive_use</t>
@@ -368,6 +365,12 @@
   </si>
   <si>
     <t xml:space="preserve">CO2 intensity improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifetime extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more_intensive_use_vehicles</t>
   </si>
   <si>
     <t xml:space="preserve">high-level measures for improved_yields, reduced_demand, intensive_use</t>
@@ -419,12 +422,18 @@
     <t xml:space="preserve">increased_lifetime, improved_yields, reuse, recycling, more intense use, using less material by design, SSP1</t>
   </si>
   <si>
+    <t xml:space="preserve">recycle, decarbonization</t>
+  </si>
+  <si>
     <t xml:space="preserve">recycling, CCU</t>
   </si>
   <si>
     <t xml:space="preserve">recycling, decarbonisation</t>
   </si>
   <si>
+    <t xml:space="preserve">lightweighting</t>
+  </si>
+  <si>
     <t xml:space="preserve">flex work half (transport)</t>
   </si>
   <si>
@@ -446,7 +455,13 @@
     <t xml:space="preserve">renovation</t>
   </si>
   <si>
+    <t xml:space="preserve">lifetime extension of buildings</t>
+  </si>
+  <si>
     <t xml:space="preserve">reduced energy demand of fossil infrastructure given low-carbon transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material substitution: wood</t>
   </si>
   <si>
     <t xml:space="preserve">reuse (direct reuse without remelting)</t>
@@ -460,6 +475,15 @@
 g) direct reuse (without remelting) (slow)</t>
   </si>
   <si>
+    <t xml:space="preserve">decarbonize material production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy efficiency of material production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intensive use, lifetime extension, lightweighting, material substitution, recycling, decarbonization of material production, process energy efficiency</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
@@ -505,22 +529,28 @@
     <t xml:space="preserve">iron &amp; steel (ew)</t>
   </si>
   <si>
+    <t xml:space="preserve">buildings embodied emissions of bulk materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulk material industries</t>
+  </si>
+  <si>
     <t xml:space="preserve">buildings, vehicles, electrical machinery (ew)</t>
   </si>
   <si>
     <t xml:space="preserve">industry</t>
   </si>
   <si>
+    <t xml:space="preserve">economy-wide (for household products and vehicles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economy-wide effects of measures in accommodation, transport and consumer durables sectors</t>
+  </si>
+  <si>
     <t xml:space="preserve">iron and steel</t>
   </si>
   <si>
-    <t xml:space="preserve">households (ew)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economy-wide effects of measures in accommodation, transport and consumer durables sectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waste management</t>
+    <t xml:space="preserve">waste</t>
   </si>
   <si>
     <t xml:space="preserve">packaging</t>
@@ -628,6 +658,9 @@
     <t xml:space="preserve">cumulative 2020-60 vs. BAU</t>
   </si>
   <si>
+    <t xml:space="preserve">cumulative 2015-2100 vs. BAU</t>
+  </si>
+  <si>
     <t xml:space="preserve">vs. BAU</t>
   </si>
   <si>
@@ -643,9 +676,6 @@
     <t xml:space="preserve">vs. BAU 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">2050 vs. 2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">vs. 2013 BAU</t>
   </si>
   <si>
@@ -658,6 +688,9 @@
     <t xml:space="preserve">2050 vs. 2015</t>
   </si>
   <si>
+    <t xml:space="preserve">2030 vs. 2008</t>
+  </si>
+  <si>
     <t xml:space="preserve">cumulative 2015-50 vs. BAU</t>
   </si>
   <si>
@@ -682,6 +715,9 @@
     <t xml:space="preserve">cum 2020-60 vs. BAU</t>
   </si>
   <si>
+    <t xml:space="preserve">vs. 2030 BAU%</t>
+  </si>
+  <si>
     <t xml:space="preserve">2050 vs. 2000</t>
   </si>
   <si>
@@ -694,9 +730,6 @@
     <t xml:space="preserve">vs. BAU 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">vs. 2070 BAU</t>
-  </si>
-  <si>
     <t xml:space="preserve">cumulative 2020-5050 vs BAU</t>
   </si>
   <si>
@@ -709,6 +742,9 @@
     <t xml:space="preserve">annual vs. BAU 2100</t>
   </si>
   <si>
+    <t xml:space="preserve">cum 2020-50 vs. BAU</t>
+  </si>
+  <si>
     <t xml:space="preserve">vs. Cum 2050</t>
   </si>
   <si>
@@ -775,10 +811,19 @@
     <t xml:space="preserve">-0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
+    <t xml:space="preserve">-0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28999999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.86</t>
   </si>
   <si>
     <t xml:space="preserve">-0.499</t>
@@ -820,139 +865,130 @@
     <t xml:space="preserve">-0.89</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.5000000000000001E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55000000000000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56000000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.2E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.54028436018957349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.9999999999999993E-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28000000000000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.46810000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10100000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16800000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.4E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.57999999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51770000000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.05</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5000000000000001E-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55000000000000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.2E-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.54028436018957349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.9999999999999993E-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46810000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10100000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16800000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.4E-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.57999999999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.56000000000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51770000000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.43</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28999999999999998</t>
+    <t xml:space="preserve">-5.2999999999999999E-2</t>
   </si>
   <si>
     <t xml:space="preserve">-0.85</t>
@@ -976,15 +1012,12 @@
     <t xml:space="preserve">-0.11700000000000001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48</t>
+    <t xml:space="preserve">-0.48</t>
   </si>
   <si>
     <t xml:space="preserve">-8.4000000000000005E-2</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.47</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.313</t>
   </si>
   <si>
@@ -1003,10 +1036,7 @@
     <t xml:space="preserve">-0.79</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.28999999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3000000000000002E-2</t>
+    <t xml:space="preserve">-0.02</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -1021,24 +1051,12 @@
     <t xml:space="preserve">-0.40500000000000003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.33500000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">-8.6999999999999994E-2</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14000000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28000000000000003</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.308</t>
   </si>
   <si>
@@ -1051,7 +1069,10 @@
     <t xml:space="preserve">-0.72</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26</t>
+    <t xml:space="preserve">-3.3000000000000002E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26</t>
   </si>
   <si>
     <t xml:space="preserve">-0.20699999999999999</t>
@@ -1063,15 +1084,9 @@
     <t xml:space="preserve">-0.35</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5000000000000001E-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.97</t>
   </si>
   <si>
@@ -1081,7 +1096,10 @@
     <t xml:space="preserve">-0.13</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7E-2</t>
+    <t xml:space="preserve">-5.1999999999999998E-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.7E-2</t>
   </si>
   <si>
     <t xml:space="preserve">-0.99</t>
@@ -1090,18 +1108,12 @@
     <t xml:space="preserve">-0.61</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4999999999999999E-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9000000000000006E-2</t>
+    <t xml:space="preserve">-1.4999999999999999E-2</t>
   </si>
   <si>
     <t xml:space="preserve">0.11</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.37</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.93</t>
   </si>
   <si>
@@ -1111,15 +1123,6 @@
     <t xml:space="preserve">-0.375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Willi please fill in original cols to left</t>
   </si>
   <si>
@@ -1129,9 +1132,6 @@
     <t xml:space="preserve">-1E-3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.51</t>
   </si>
   <si>
@@ -1142,9 +1142,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
   </si>
 </sst>
 </file>
@@ -1652,24 +1649,6 @@
       </c>
       <c r="B29"/>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1694,195 +1673,177 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>370</v>
-      </c>
-      <c r="B31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>328</v>
-      </c>
-      <c r="B33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1908,663 +1869,729 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
         <v>142</v>
       </c>
-      <c r="B111"/>
+      <c r="B114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2590,13 +2617,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B3"/>
     </row>
@@ -2624,13 +2651,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B3"/>
     </row>
@@ -2658,19 +2685,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B4"/>
     </row>
@@ -2698,237 +2725,249 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2954,285 +2993,297 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3258,573 +3309,561 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>324</v>
-      </c>
-      <c r="B95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>325</v>
-      </c>
-      <c r="B96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3850,303 +3889,297 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="B23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="B24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="B25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="B28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="B32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="B36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="B38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="B45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="B49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>354</v>
-      </c>
-      <c r="B51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
